--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_12-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_12-02.xlsx
@@ -38,6 +38,12 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>AFROMED 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALGASON MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -68,6 +74,12 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
+    <t>CIPALAFIL 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -92,9 +104,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -104,9 +113,6 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>LAGAR 15 ML DROPS</t>
   </si>
   <si>
@@ -159,6 +165,9 @@
   </si>
   <si>
     <t>UNITREXATE 50 MG 5 I.M. I.V. VIALS</t>
+  </si>
+  <si>
+    <t>URIBLADON 25 MG XR TAB</t>
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
@@ -837,11 +846,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>46</v>
+        <v>63.049999999999997</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -863,7 +872,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
@@ -883,17 +892,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -901,7 +910,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -909,17 +918,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>450</v>
+        <v>87</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -927,7 +936,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -935,13 +944,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
@@ -961,13 +970,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
@@ -979,7 +988,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -987,13 +996,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
@@ -1005,7 +1014,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1013,13 +1022,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
@@ -1031,7 +1040,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1039,17 +1048,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1057,7 +1066,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1065,17 +1074,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>82.920000000000002</v>
+        <v>72</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>2.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1083,7 +1092,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1091,17 +1100,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1117,17 +1126,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>74</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>1</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1135,7 +1144,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1143,17 +1152,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1161,7 +1170,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1169,13 +1178,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>169.19999999999999</v>
+        <v>74</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1187,7 +1196,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1195,13 +1204,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1213,7 +1222,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1221,17 +1230,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>86.5</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1253,7 +1262,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1273,17 +1282,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1299,13 +1308,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1317,7 +1326,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1325,17 +1334,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1343,7 +1352,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1351,17 +1360,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1369,7 +1378,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1377,17 +1386,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>41</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1395,7 +1404,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1403,17 +1412,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1421,7 +1430,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1429,17 +1438,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1455,13 +1464,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1473,7 +1482,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1481,13 +1490,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1499,7 +1508,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1507,13 +1516,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1533,17 +1542,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1551,7 +1560,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1559,17 +1568,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>74.689999999999998</v>
+        <v>23</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1577,7 +1586,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1585,17 +1594,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1611,17 +1620,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>17</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1629,7 +1638,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1643,11 +1652,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>102.59999999999999</v>
+        <v>128</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1655,7 +1664,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1663,17 +1672,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1681,7 +1690,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1689,17 +1698,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1715,13 +1724,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>10</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1733,7 +1742,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1741,17 +1750,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1759,7 +1768,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1767,17 +1776,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1785,7 +1794,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1793,17 +1802,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1811,7 +1820,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1819,17 +1828,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1837,7 +1846,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1845,51 +1854,129 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="26.25" customHeight="1">
-      <c r="K45" s="11">
-        <v>2826.8699999999999</v>
-      </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="12">
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
+        <v>64</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
+        <v>65</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>72</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
+        <v>66</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
         <v>67</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c t="s" r="F46" s="13">
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>45</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
         <v>68</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-      <c t="s" r="I46" s="15">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
         <v>69</v>
       </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>30</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="K48" s="11">
+        <v>3082.9200000000001</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1">
+      <c t="s" r="A49" s="12">
+        <v>70</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c t="s" r="F49" s="13">
+        <v>71</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c t="s" r="I49" s="15">
+        <v>72</v>
+      </c>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
+  <mergeCells count="143">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2020,10 +2107,19 @@
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:N49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
